--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +44,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Capicity</t>
+    <t>Capacity</t>
   </si>
   <si>
     <t>BuyPrice</t>
@@ -268,14 +281,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,41 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -340,14 +318,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,6 +357,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,13 +422,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,49 +464,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,103 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,21 +657,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +690,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,148 +761,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,52 +923,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Sprites/Items/armor</t>
+  </si>
+  <si>
+    <t>龙钢战刃</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1375,6 +1378,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1002001</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K4:Z1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -79,7 +79,7 @@
     <t>生命泉涌中的生命圣水稀释而来，甘甜可口，对伤势一定的治疗效果。</t>
   </si>
   <si>
-    <t>Sprites/Items/hp</t>
+    <t>Sprites/Items/Potions/Potion4</t>
   </si>
   <si>
     <t>魔力药剂</t>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1134,7 +1134,9 @@
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.5" style="3" customWidth="1"/>
-    <col min="6" max="8" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5916666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="24" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.375" style="3" customWidth="1"/>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -79,7 +79,7 @@
     <t>生命泉涌中的生命圣水稀释而来，甘甜可口，对伤势一定的治疗效果。</t>
   </si>
   <si>
-    <t>Sprites/Items/Potions/Potion4</t>
+    <t>HpPotion</t>
   </si>
   <si>
     <t>魔力药剂</t>
@@ -1125,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,7 +92,7 @@
     <t>生命泉涌中的生命圣水稀释而来，甘甜可口，对伤势一定的治疗效果。</t>
   </si>
   <si>
-    <t>HpPotion</t>
+    <t>Sprites/Items/Potions/HpPotion</t>
   </si>
   <si>
     <t>魔力药剂</t>
@@ -148,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -172,55 +185,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +242,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -310,7 +302,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,49 +344,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,97 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,21 +537,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +570,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,148 +641,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,52 +803,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1126,7 +1139,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -92,7 +92,7 @@
     <t>生命泉涌中的生命圣水稀释而来，甘甜可口，对伤势一定的治疗效果。</t>
   </si>
   <si>
-    <t>Sprites/Items/Potions/HpPotion</t>
+    <t>Potions/HpPotion</t>
   </si>
   <si>
     <t>魔力药剂</t>
@@ -101,9 +101,6 @@
     <t>由大魔法师希尔研制的魔力恢复药剂，闻上去有些绣味，但能够快速恢复魔力。</t>
   </si>
   <si>
-    <t>Sprites/Items/mp</t>
-  </si>
-  <si>
     <t>内测徽章</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>属于内测勇士的专属徽章</t>
   </si>
   <si>
-    <t>Icons/stoune_icon</t>
-  </si>
-  <si>
     <t>升级卷轴</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>使用后等级+1</t>
   </si>
   <si>
-    <t>Sprites/Items/scroll</t>
-  </si>
-  <si>
     <t>龙鸣战靴</t>
   </si>
   <si>
@@ -143,16 +134,10 @@
     <t>朝辞白帝彩云间,千里江陵一日还</t>
   </si>
   <si>
-    <t>Sprites/Items/boots</t>
-  </si>
-  <si>
     <t>龙鸣战甲</t>
   </si>
   <si>
     <t>黄沙百战穿金甲,不破楼兰终不还</t>
-  </si>
-  <si>
-    <t>Sprites/Items/armor</t>
   </si>
   <si>
     <t>龙钢战刃</t>
@@ -1139,7 +1124,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1282,9 +1267,7 @@
       <c r="F5" s="3">
         <v>64</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -1294,23 +1277,21 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="3">
         <v>0</v>
       </c>
@@ -1320,23 +1301,21 @@
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3">
         <v>64</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="3">
         <v>0</v>
       </c>
@@ -1346,23 +1325,21 @@
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -1372,23 +1349,21 @@
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -1398,13 +1373,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -146,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -170,6 +157,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -183,6 +198,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,14 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +266,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -258,21 +281,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -287,28 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +316,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,24 +382,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,18 +424,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,36 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,19 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +509,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,21 +557,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,148 +613,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -788,52 +775,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1123,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1384,6 +1371,9 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="3">
         <v>1002001</v>
       </c>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -40,12 +40,21 @@
     <t>UnitId</t>
   </si>
   <si>
+    <t>CanUse</t>
+  </si>
+  <si>
+    <t>UseBuff</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>物品ID</t>
   </si>
   <si>
@@ -67,7 +76,13 @@
     <t>图标资源</t>
   </si>
   <si>
-    <t>治愈之水</t>
+    <t>是否可直接使用</t>
+  </si>
+  <si>
+    <t>使用后的Buff</t>
+  </si>
+  <si>
+    <t>治愈圣水</t>
   </si>
   <si>
     <t>消耗品</t>
@@ -76,7 +91,7 @@
     <t>普通</t>
   </si>
   <si>
-    <t>生命泉涌中的生命圣水稀释而来，甘甜可口，对伤势一定的治疗效果。</t>
+    <t>妖精之森的生命圣泉之水稀释而来，对伤势良好的疗愈效果。</t>
   </si>
   <si>
     <t>Potions/HpPotion</t>
@@ -1108,17 +1123,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="4" width="12.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="72.0583333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.5916666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="3" customWidth="1"/>
@@ -1134,7 +1149,7 @@
     <col min="30" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,97 +1174,121 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>64</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>1001001</v>
       </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
         <v>64</v>
@@ -1258,22 +1297,28 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="3">
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1282,22 +1327,28 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
+      <c r="I6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="3">
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>64</v>
@@ -1306,22 +1357,28 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="3">
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1330,22 +1387,28 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:8">
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="3">
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1354,28 +1417,40 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="3">
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3">
         <v>1002001</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1385,11 +1460,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576">
+      <formula1>"普通,非凡,稀有,史诗,传说,神器"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
       <formula1>"消耗品,道具,装备"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576">
-      <formula1>"普通,非凡,稀有,史诗,传说,神器"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/ItemDefine.xlsx
+++ b/SERVER/Common/Data/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,9 @@
     <t>由大魔法师希尔研制的魔力恢复药剂，闻上去有些绣味，但能够快速恢复魔力。</t>
   </si>
   <si>
+    <t>Potions/MpPotion</t>
+  </si>
+  <si>
     <t>内测徽章</t>
   </si>
   <si>
@@ -143,6 +146,12 @@
   </si>
   <si>
     <t>龙钢战刃</t>
+  </si>
+  <si>
+    <t>哥布林指骨</t>
+  </si>
+  <si>
+    <t>Monster/GoblinBone</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1293,7 +1302,9 @@
       <c r="F5" s="3">
         <v>64</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -1309,16 +1320,16 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1339,16 +1350,16 @@
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3">
         <v>64</v>
@@ -1369,16 +1380,16 @@
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1399,16 +1410,16 @@
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1429,20 +1440,18 @@
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <v>1002001</v>
       </c>
@@ -1450,6 +1459,35 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1002002</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1460,11 +1498,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
+      <formula1>"消耗品,道具,装备"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576">
       <formula1>"普通,非凡,稀有,史诗,传说,神器"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
-      <formula1>"消耗品,道具,装备"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
